--- a/supplementary_tables.xlsx
+++ b/supplementary_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agaplesion.sharepoint.com/sites/IFGF-SURGEAhead/Freigegebene Dokumente/General/09_Veröffentlichungen_Öffentlichkeitsarbeit/2025/OKIE_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="910" documentId="8_{62A0C127-44F8-44CA-A340-CA719E79B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FDF0ACA-F57C-4255-82F9-24E37EBB3A26}"/>
+  <xr:revisionPtr revIDLastSave="913" documentId="8_{62A0C127-44F8-44CA-A340-CA719E79B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6308256C-9182-4CCC-9C7D-9F3475E7B947}"/>
   <bookViews>
     <workbookView xWindow="696" yWindow="1200" windowWidth="20868" windowHeight="8880" xr2:uid="{E1B85916-EF19-49E6-8FB8-3953D3226EE3}"/>
   </bookViews>
@@ -111,7 +111,7 @@
     <t>Emergency OP (Yes/No)</t>
   </si>
   <si>
-    <t>Time to OP (minutes)</t>
+    <t>Time to OP (hours)</t>
   </si>
   <si>
     <t>Cut-to-Suture Time (minutes)</t>
@@ -701,13 +701,7 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,6 +716,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF7B202-2741-49B5-B760-9E62086A03AF}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1117,10 +1117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1203,88 +1203,88 @@
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>-0.17610141398752799</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>1.7367609220066599E-2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>-0.129591288697669</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>0.15348307389350899</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>1.3487686347189699E-2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>5.4998436273955301E-2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <v>-0.21007317164640801</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>-8.7810910741524098E-2</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <v>-3.9871042833027198E-2</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <v>4.0866137562860998E-2</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="8">
         <v>-0.24264368358378299</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="8">
         <v>-0.23643822445832099</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="8">
         <v>-0.18706590746046001</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="8">
         <v>-0.14907733625286801</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="8">
         <v>-0.194564798457005</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="8">
         <v>-8.9068699936212595E-2</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="8">
         <v>-3.3050515521055597E-2</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="8">
         <v>0.12725142087969399</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="8">
         <v>0.116908867376292</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="8">
         <v>0.18569041287312599</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="8">
         <v>-0.14166842017569001</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="8">
         <v>-7.2966151080592803E-2</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Y2" s="8">
         <v>-3.7533539716384401E-2</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="Z2" s="8">
         <v>6.47530971643831E-2</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="8">
         <v>-7.4773532690816505E-2</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="8">
         <v>-0.27097995467838598</v>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>-0.17610141398752799</v>
       </c>
       <c r="C3" s="5">
@@ -1378,7 +1378,7 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1.7367609220066599E-2</v>
       </c>
       <c r="C4" s="2">
@@ -1464,7 +1464,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>-0.129591288697669</v>
       </c>
       <c r="C5" s="2">
@@ -1550,7 +1550,7 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>0.15348307389350899</v>
       </c>
       <c r="C6" s="2">
@@ -1636,7 +1636,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1.3487686347189699E-2</v>
       </c>
       <c r="C7" s="2">
@@ -1722,7 +1722,7 @@
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>5.4998436273955301E-2</v>
       </c>
       <c r="C8" s="2">
@@ -1808,7 +1808,7 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>-0.21007317164640801</v>
       </c>
       <c r="C9" s="2">
@@ -1894,7 +1894,7 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>-8.7810910741524098E-2</v>
       </c>
       <c r="C10" s="2">
@@ -1980,7 +1980,7 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>-3.9871042833027198E-2</v>
       </c>
       <c r="C11" s="2">
@@ -2066,7 +2066,7 @@
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>4.0866137562860998E-2</v>
       </c>
       <c r="C12" s="2">
@@ -2152,7 +2152,7 @@
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>-0.24264368358378299</v>
       </c>
       <c r="C13" s="2">
@@ -2238,7 +2238,7 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>-0.23643822445832099</v>
       </c>
       <c r="C14" s="2">
@@ -2324,7 +2324,7 @@
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>-0.18706590746046001</v>
       </c>
       <c r="C15" s="2">
@@ -2410,7 +2410,7 @@
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>-0.14907733625286801</v>
       </c>
       <c r="C16" s="2">
@@ -2496,7 +2496,7 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>-0.194564798457005</v>
       </c>
       <c r="C17" s="2">
@@ -2582,7 +2582,7 @@
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>-8.9068699936212595E-2</v>
       </c>
       <c r="C18" s="2">
@@ -2668,7 +2668,7 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>-3.3050515521055597E-2</v>
       </c>
       <c r="C19" s="2">
@@ -2754,7 +2754,7 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>0.12725142087969399</v>
       </c>
       <c r="C20" s="2">
@@ -2840,7 +2840,7 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>0.116908867376292</v>
       </c>
       <c r="C21" s="2">
@@ -2926,7 +2926,7 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>0.18569041287312599</v>
       </c>
       <c r="C22" s="2">
@@ -3012,7 +3012,7 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>-0.14166842017569001</v>
       </c>
       <c r="C23" s="2">
@@ -3098,7 +3098,7 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>-7.2966151080592803E-2</v>
       </c>
       <c r="C24" s="2">
@@ -3184,7 +3184,7 @@
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>-3.7533539716384401E-2</v>
       </c>
       <c r="C25" s="2">
@@ -3270,7 +3270,7 @@
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>6.47530971643831E-2</v>
       </c>
       <c r="C26" s="2">
@@ -3356,7 +3356,7 @@
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>-7.4773532690816505E-2</v>
       </c>
       <c r="C27" s="2">
@@ -3442,7 +3442,7 @@
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>-0.27097995467838598</v>
       </c>
       <c r="C28" s="2">
@@ -3525,36 +3525,36 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3568,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644C9FA5-6254-48D6-B781-7F9326430C49}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -3590,25 +3590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
@@ -4716,36 +4716,36 @@
     </row>
     <row r="29" spans="1:28" ht="15"/>
     <row r="30" spans="1:28" ht="15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
     </row>
     <row r="31" spans="1:28" ht="15"/>
   </sheetData>
@@ -4966,15 +4966,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cab0f8d8-48f0-4959-869b-5cdbbf0ba533">
@@ -4985,14 +4976,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22F931EA-AD04-4318-873F-07BE68849791}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF382934-F0CF-41C7-96E5-8CB4B32DCFDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547266F0-EBBA-432E-BF67-375495BF4087}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547266F0-EBBA-432E-BF67-375495BF4087}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF382934-F0CF-41C7-96E5-8CB4B32DCFDE}"/>
 </file>